--- a/data/trans_camb/P19C07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Edad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.4231639523475883</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.3439018675321384</v>
+        <v>0.3439018675321398</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.349104862119807</v>
@@ -664,7 +664,7 @@
         <v>0.07123984314323928</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.8673922863692896</v>
+        <v>0.8673922863692909</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5196043450616807</v>
+        <v>-0.5612888192072283</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.634517248171808</v>
+        <v>-3.477568022872025</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.728947748073777</v>
+        <v>-2.615424829447337</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.21859432555948</v>
+        <v>-2.237318970101485</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.250980402129275</v>
+        <v>-3.493989408913213</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.123648484526823</v>
+        <v>-4.220092015863957</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2510184318480271</v>
+        <v>-0.3382067192094144</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.512520725703282</v>
+        <v>-2.417668297364902</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.466767654795828</v>
+        <v>-2.470698664262639</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.90952495950738</v>
+        <v>6.607081277096484</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.094589750234502</v>
+        <v>3.243681566327326</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.268224834035515</v>
+        <v>7.105702082817608</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.614575457002758</v>
+        <v>5.409915268475355</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.02237706950684</v>
+        <v>4.142871054515064</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.049242595642153</v>
+        <v>5.2187172831789</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.840400694140558</v>
+        <v>4.95918575466218</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.381239480611636</v>
+        <v>2.454362247212776</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.428467501941685</v>
+        <v>4.653795421961681</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.0586616927908902</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04767387579084912</v>
+        <v>0.04767387579084931</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.3623346949061299</v>
@@ -769,7 +769,7 @@
         <v>0.01098829909498935</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.1337898211840311</v>
+        <v>0.1337898211840313</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1174785171533184</v>
+        <v>-0.1026107441757474</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5005975097413931</v>
+        <v>-0.4693450955567695</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4106352330055934</v>
+        <v>-0.46416036268619</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2681015363491612</v>
+        <v>-0.2661290111992504</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3742371925365188</v>
+        <v>-0.3872854001307979</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4681867360104111</v>
+        <v>-0.4980180342840175</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04948487564060301</v>
+        <v>-0.03881543412081097</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.316611580998832</v>
+        <v>-0.3178374191770812</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3464718605455735</v>
+        <v>-0.3463437270173617</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.664975341592083</v>
+        <v>1.619476471272486</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7755189649473532</v>
+        <v>0.8477615040915504</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.659916113917856</v>
+        <v>1.637773320995088</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.053971847356816</v>
+        <v>1.00034215095364</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7216131255080497</v>
+        <v>0.7980079539620633</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9338929842491243</v>
+        <v>0.9165748496645405</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8793466676865259</v>
+        <v>0.9507760005840745</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4427738975595774</v>
+        <v>0.4713532176229984</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8051363233841475</v>
+        <v>0.8252643832010851</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>1.514061738497396</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.857950883738815</v>
+        <v>3.857950883738817</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.066152585081888</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.740496455235639</v>
+        <v>-1.88346123822385</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.524966455412618</v>
+        <v>-2.685419482368362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.269334711808117</v>
+        <v>-1.476633721949071</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.095572916318446</v>
+        <v>-1.361126271698793</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.11305291621755</v>
+        <v>-0.9575268332665381</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8081937071441891</v>
+        <v>0.9616130420154964</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.7991257300814496</v>
+        <v>-0.8332176166800891</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.117017722641344</v>
+        <v>-1.132619709645927</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5894865437235098</v>
+        <v>0.7245185665062284</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.956894720626398</v>
+        <v>2.978489716055726</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.933224158987705</v>
+        <v>1.884218120760849</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.938896782137772</v>
+        <v>4.908148930515985</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.430652388103411</v>
+        <v>4.450520652179868</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.209931090265601</v>
+        <v>4.415629259165986</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.290299713587483</v>
+        <v>7.259719939020671</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.763356497529069</v>
+        <v>2.931753362149927</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.532958141122601</v>
+        <v>2.285947814910148</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.078261757551489</v>
+        <v>5.163042064842081</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.3801505053134692</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.96865401234124</v>
+        <v>0.9686540123412404</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2687548046599546</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3512104623930004</v>
+        <v>-0.3733202552184941</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4934941338250773</v>
+        <v>-0.5063670621394606</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2991722145305758</v>
+        <v>-0.3180049165045981</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2360591086735553</v>
+        <v>-0.2697482444310375</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2356453185864806</v>
+        <v>-0.2189129933864539</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.129159347735236</v>
+        <v>0.1204411169073256</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1755899668833818</v>
+        <v>-0.1738729878311568</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2420126875561614</v>
+        <v>-0.2683190945629905</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.08761192666475273</v>
+        <v>0.1240897918419654</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.092822359806243</v>
+        <v>1.047125425191455</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7834820152684602</v>
+        <v>0.7603624050901864</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.705047977943932</v>
+        <v>1.72774690472207</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.611307642575148</v>
+        <v>1.662420590706273</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.464672957704265</v>
+        <v>1.647424999034472</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.448574808864119</v>
+        <v>2.484765770599679</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.831715322285589</v>
+        <v>0.9498640330862764</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7904680396604449</v>
+        <v>0.7231177895132685</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.59750112552968</v>
+        <v>1.612085524764452</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>0.4919402620033326</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.154224982010449</v>
+        <v>1.154224982010448</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.163767109088788</v>
+        <v>-1.228623797386979</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6609454301107596</v>
+        <v>-0.5859505425272096</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.6630098447997143</v>
+        <v>-0.7724885937501955</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.468032937400913</v>
+        <v>-1.419339462150147</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.194435696706834</v>
+        <v>-2.264710425478706</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.8644354365508006</v>
+        <v>-0.8058426222175724</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.8144896000902822</v>
+        <v>-0.7477231566861674</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.869147208491954</v>
+        <v>-0.8068564249542005</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.1580649452687054</v>
+        <v>-0.230660515736374</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.467300370164649</v>
+        <v>2.705502414868281</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.343158539962132</v>
+        <v>3.404339902318763</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.286398437404608</v>
+        <v>3.092555172047195</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.411996309871617</v>
+        <v>2.220098270823553</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.478522859510505</v>
+        <v>1.54240365754646</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.895825793503209</v>
+        <v>3.206562456339614</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.88046493498255</v>
+        <v>1.872183934244747</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.941598723845278</v>
+        <v>2.079258103061444</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.451786028749934</v>
+        <v>2.486664158270782</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.1994870307732839</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.4680505587567697</v>
+        <v>0.4680505587567692</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4163485442119696</v>
+        <v>-0.4793493833239992</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2751201090634089</v>
+        <v>-0.2231540647524224</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2950822518551686</v>
+        <v>-0.3043330197384986</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.413718018215762</v>
+        <v>-0.3788203029817521</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5802581369306757</v>
+        <v>-0.6050009961469008</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2551503516716994</v>
+        <v>-0.2418494419762268</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2698992972197766</v>
+        <v>-0.2508024284253096</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.271841767183221</v>
+        <v>-0.2698501246590044</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.05846370099904918</v>
+        <v>-0.09064535509648271</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.978751539982966</v>
+        <v>2.17636897713227</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.422275140512678</v>
+        <v>2.658536329288413</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.64802126152275</v>
+        <v>2.254728850233618</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.241708880684082</v>
+        <v>1.168975081819363</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.80150673776285</v>
+        <v>0.8407603277714725</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.556224446175635</v>
+        <v>1.784656706414634</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.008870382477378</v>
+        <v>1.057099677975594</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.096499160376329</v>
+        <v>1.163948317294407</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.445258991083299</v>
+        <v>1.372582423330258</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.900173741901847</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.2387174719212987</v>
+        <v>-0.238717471921298</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.1785798826275914</v>
@@ -1306,7 +1306,7 @@
         <v>-0.5662823414944756</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.4878000805870506</v>
+        <v>0.487800080587052</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.157902642531152</v>
+        <v>-4.488646253346835</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.3693656793561</v>
+        <v>-4.442977503446217</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.72426652565888</v>
+        <v>-2.968158721336661</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.949595166785669</v>
+        <v>-2.085030733161056</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.133697399508566</v>
+        <v>-1.340186132599112</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.8154564913446023</v>
+        <v>-0.5485587084431354</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.509897478100378</v>
+        <v>-2.33564064513675</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.246496281501276</v>
+        <v>-2.133405018665451</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.9184682429710258</v>
+        <v>-0.9638935977647074</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5306605780586748</v>
+        <v>0.5427360860857221</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2584671293457672</v>
+        <v>0.01391450898854747</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.950913234997101</v>
+        <v>1.890606550449177</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.65033894663907</v>
+        <v>1.773475624416697</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.841658698173372</v>
+        <v>2.575922487879025</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.734101522169352</v>
+        <v>2.904963976791016</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6022152887971042</v>
+        <v>0.7640402629157858</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9191678377832138</v>
+        <v>1.006458120821242</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.964093306382366</v>
+        <v>2.042233849260474</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.5194265169482367</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.06525518285010259</v>
+        <v>-0.0652551828501024</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.07792603624293384</v>
@@ -1411,7 +1411,7 @@
         <v>-0.1921519220272261</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1655211829534896</v>
+        <v>0.1655211829534901</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7912593792552851</v>
+        <v>-0.8165498312797774</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8317075815747687</v>
+        <v>-0.8218374847914632</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5341395066975033</v>
+        <v>-0.544257983060107</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6670887843011287</v>
+        <v>-0.6344146555222263</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.386588315497189</v>
+        <v>-0.4419780569069144</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2288391247953729</v>
+        <v>-0.1695862620858433</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6503800448847314</v>
+        <v>-0.6356350898785091</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5741114556138446</v>
+        <v>-0.5423394139630737</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2531204392492007</v>
+        <v>-0.2475763446073735</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3114354250153605</v>
+        <v>0.4039799972952832</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1712235518232963</v>
+        <v>0.1823975232763723</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9522608639684048</v>
+        <v>0.815976624343297</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.295347851152358</v>
+        <v>1.508723347165095</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.367030065674278</v>
+        <v>1.883033093854535</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.427546455635919</v>
+        <v>2.541788041864773</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3203125936455952</v>
+        <v>0.3889318867528784</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5162662462848868</v>
+        <v>0.4737250738326082</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9883438621317534</v>
+        <v>1.007857770473595</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>0.03302765218019948</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.4005486276343388</v>
+        <v>0.4005486276343395</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.088762456492649</v>
+        <v>-1.937000094151282</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.799224864242851</v>
+        <v>-1.86374340986744</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.949135460430422</v>
+        <v>-1.910231562837658</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.886485614340645</v>
+        <v>-2.971898292625549</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.480097895485084</v>
+        <v>-2.570466595234221</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.018472458404677</v>
+        <v>-1.129462136291899</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.001376407705923</v>
+        <v>-1.747944953829235</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.454723630240241</v>
+        <v>-1.487854451037806</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.094588215780913</v>
+        <v>-1.046296185773438</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.749724879633862</v>
+        <v>1.764520549926468</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.156009785532452</v>
+        <v>2.230206985735395</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.170081077759796</v>
+        <v>1.248278535037482</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.085365867698563</v>
+        <v>0.9471379403340634</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.943141811991759</v>
+        <v>1.66263961763592</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.805287176277731</v>
+        <v>2.630176664013673</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.8166568874090065</v>
+        <v>0.9539891544894404</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.480765330819737</v>
+        <v>1.391143958461154</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.574606103206706</v>
+        <v>1.541011027886875</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.01928445512355897</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2338756019432831</v>
+        <v>0.2338756019432835</v>
       </c>
     </row>
     <row r="32">
@@ -1639,28 +1639,28 @@
         <v>-1</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8156034334850641</v>
+        <v>-0.8638288592378817</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7865485550831706</v>
+        <v>-0.749690637405812</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.8907972961640905</v>
+        <v>-0.8855205941759513</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7721027990746959</v>
+        <v>-0.7949767073894666</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3424821175131424</v>
+        <v>-0.3424011098326057</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.7613434773207093</v>
+        <v>-0.7269834611905296</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5843522720974821</v>
+        <v>-0.6193456682118353</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3951543910772078</v>
+        <v>-0.3916163724217346</v>
       </c>
     </row>
     <row r="33">
@@ -1670,34 +1670,32 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C33" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="C33" s="6" t="n">
+        <v>9.85995591228494</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>4.498700212402365</v>
+        <v>4.877425514134206</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.856460613859936</v>
+        <v>3.012645403281931</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.958400577926551</v>
+        <v>1.33700283814629</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>2.411596259629996</v>
+        <v>1.906843497398985</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.665390837897218</v>
+        <v>3.530301708619201</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.072873709009752</v>
+        <v>1.067253719248697</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.582879066779716</v>
+        <v>1.536656317016514</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.677499463265486</v>
+        <v>1.605840630753701</v>
       </c>
     </row>
     <row r="34">
@@ -1747,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-6.834853912443753</v>
+        <v>-6.908337549541168</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-6.293395800307406</v>
+        <v>-6.129004000776327</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.406844086969731</v>
+        <v>-5.462875662182791</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.700695478527175</v>
+        <v>-4.112313273870987</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.802682664300424</v>
+        <v>-3.924013634535833</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.574092091876088</v>
+        <v>-3.726981944243785</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-4.711654786811805</v>
+        <v>-4.574821220088795</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.899071827176302</v>
+        <v>-3.809828776237499</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-3.57082609306444</v>
+        <v>-3.404556675306294</v>
       </c>
     </row>
     <row r="36">
@@ -1782,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-1.105975175187339</v>
+        <v>-1.393654744135158</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-0.05236919123056229</v>
+        <v>-0.005579009193085667</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.5111706412346472</v>
+        <v>0.7010402138687289</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.155468705654978</v>
+        <v>1.010046889968778</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.258360449244817</v>
+        <v>1.777773097160051</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.259596672883247</v>
+        <v>1.28469971550922</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-0.7634217233422383</v>
+        <v>-0.6453957352817326</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.2205775801846347</v>
+        <v>0.488826163809539</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.2285320885618314</v>
+        <v>0.4320455459819062</v>
       </c>
     </row>
     <row r="37">
@@ -1855,28 +1853,28 @@
         <v>-1</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.9249422031509668</v>
+        <v>-0.9271768007174471</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7905006318246469</v>
+        <v>-0.7840717333573284</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.8668609788971297</v>
+        <v>-0.8456962891481464</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.7883119645995647</v>
+        <v>-0.7959080967852967</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.663776699525148</v>
+        <v>-0.6654951331461368</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.8756165708218465</v>
+        <v>-0.8797209498706261</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.7629387880774656</v>
+        <v>-0.7595008658422508</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.6587284029437583</v>
+        <v>-0.6418238381401821</v>
       </c>
     </row>
     <row r="39">
@@ -1887,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.009676470756767664</v>
+        <v>-0.1953075443336959</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.32587153381035</v>
+        <v>0.2327357337607936</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3096875288952197</v>
+        <v>0.4986949882962996</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.021143907549904</v>
+        <v>0.7642219374219003</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.643170633892993</v>
+        <v>1.140348640456937</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.8057570195075433</v>
+        <v>0.7748054570527086</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.1384824775506535</v>
+        <v>-0.1672210628298713</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1445154518172586</v>
+        <v>0.2596190093598949</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.09989222976725967</v>
+        <v>0.2160125461785097</v>
       </c>
     </row>
     <row r="40">
@@ -1961,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.275644953682062</v>
+        <v>-3.499852340996332</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.242099629868531</v>
+        <v>-4.938215462578468</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.30339209661016</v>
+        <v>-3.519947141840132</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.595249591725237</v>
+        <v>-3.650111177049473</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.329795700697132</v>
+        <v>-3.452142294281898</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.697751714150105</v>
+        <v>-2.781940303113954</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.279216818791165</v>
+        <v>-2.298302125682465</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.777705184886518</v>
+        <v>-3.033840437969727</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.844747174030938</v>
+        <v>-1.984852965793137</v>
       </c>
     </row>
     <row r="42">
@@ -1996,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.405903905154078</v>
+        <v>2.991495697767603</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.3220090495879208</v>
+        <v>0.4641396561752366</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.357257213066918</v>
+        <v>2.164645026391673</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.62492455658734</v>
+        <v>1.604600652581419</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.892637912419759</v>
+        <v>2.501157039584885</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.272905080181836</v>
+        <v>2.249018928059607</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.46831604692464</v>
+        <v>1.564007961861051</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.203628515457176</v>
+        <v>0.9681937361907079</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.770262398995634</v>
+        <v>1.819784294619089</v>
       </c>
     </row>
     <row r="43">
@@ -2070,23 +2068,23 @@
       </c>
       <c r="D44" s="6" t="inlineStr"/>
       <c r="E44" s="6" t="n">
-        <v>-0.7985961192845691</v>
+        <v>-0.8168791876011364</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.9120415269544859</v>
+        <v>-0.8874542803070957</v>
       </c>
       <c r="G44" s="6" t="inlineStr"/>
       <c r="H44" s="6" t="n">
-        <v>-0.6199339159011121</v>
+        <v>-0.6304167292449687</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.7400915508724093</v>
+        <v>-0.7084612364376481</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.8729375703406672</v>
+        <v>-0.8922737582285242</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.5008213982339383</v>
+        <v>-0.5376586344362452</v>
       </c>
     </row>
     <row r="45">
@@ -2096,24 +2094,28 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C45" s="6" t="inlineStr"/>
+      <c r="C45" s="6" t="n">
+        <v>5.784388052030731</v>
+      </c>
       <c r="D45" s="6" t="inlineStr"/>
-      <c r="E45" s="6" t="inlineStr"/>
+      <c r="E45" s="6" t="n">
+        <v>3.815853617064823</v>
+      </c>
       <c r="F45" s="6" t="n">
-        <v>3.133884077941092</v>
+        <v>3.818363070003269</v>
       </c>
       <c r="G45" s="6" t="inlineStr"/>
       <c r="H45" s="6" t="n">
-        <v>3.159723494475265</v>
+        <v>3.388125797223432</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.661484576225216</v>
+        <v>2.0268024573984</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.742684779917592</v>
+        <v>1.401694249446101</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.816356772520076</v>
+        <v>1.940285099684533</v>
       </c>
     </row>
     <row r="46">
@@ -2152,7 +2154,7 @@
         <v>-0.2200624388931406</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.3902801156772946</v>
+        <v>0.3902801156772953</v>
       </c>
     </row>
     <row r="47">
@@ -2163,31 +2165,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.02720650157459</v>
+        <v>-1.056134924136656</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.618433941282602</v>
+        <v>-1.430557217685523</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.019310293022618</v>
+        <v>-0.9591367816255457</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.8630381631011266</v>
+        <v>-0.8095542630268722</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.9752048968391769</v>
+        <v>-0.8460334159401282</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.2414415888484865</v>
+        <v>-0.2278367572604442</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.7187255412302382</v>
+        <v>-0.7028927137221909</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.9324549638643135</v>
+        <v>-0.8863941304207436</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.2782065531870285</v>
+        <v>-0.314053182028581</v>
       </c>
     </row>
     <row r="48">
@@ -2198,31 +2200,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.017315853231068</v>
+        <v>0.9314203821869343</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.3141234979840458</v>
+        <v>0.5435868077700569</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.112419990942027</v>
+        <v>1.132651603810821</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.074132221353567</v>
+        <v>1.082275020484967</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.100779841847759</v>
+        <v>1.111436283902905</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.644160286644142</v>
+        <v>1.662260144705324</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.7215847905525146</v>
+        <v>0.7108449756569768</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.4997376386513719</v>
+        <v>0.470173033925156</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.087443341191662</v>
+        <v>1.109745253565241</v>
       </c>
     </row>
     <row r="49">
@@ -2257,7 +2259,7 @@
         <v>-0.06372882258840579</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.1130228873990547</v>
+        <v>0.1130228873990549</v>
       </c>
     </row>
     <row r="50">
@@ -2268,31 +2270,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2607248435686445</v>
+        <v>-0.2707204375120969</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3988967564514663</v>
+        <v>-0.377382703240875</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2638602860558619</v>
+        <v>-0.249657831853746</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2141955146087672</v>
+        <v>-0.2066042028764061</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2416785809407535</v>
+        <v>-0.21459526104188</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.06369402225583969</v>
+        <v>-0.0615182196958334</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1840232468631358</v>
+        <v>-0.1864243333925177</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2445169334519718</v>
+        <v>-0.2336620015134241</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.07654701144751277</v>
+        <v>-0.0878467322646613</v>
       </c>
     </row>
     <row r="51">
@@ -2303,31 +2305,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.350748567954628</v>
+        <v>0.2974511562538189</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1099265218084496</v>
+        <v>0.1928903946053313</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3736683482512158</v>
+        <v>0.3748225272567258</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3499633359200362</v>
+        <v>0.3678131442952895</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3842376086940616</v>
+        <v>0.3713756553172965</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5298655312724894</v>
+        <v>0.5666913234805384</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2372756680509922</v>
+        <v>0.2342684659717127</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1566813182175443</v>
+        <v>0.1505237079867104</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.344696910652227</v>
+        <v>0.3582013065195667</v>
       </c>
     </row>
     <row r="52">
